--- a/biology/Histoire de la zoologie et de la botanique/Takayoshi_Kanō/Takayoshi_Kanō.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Takayoshi_Kanō/Takayoshi_Kanō.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Takayoshi_Kan%C5%8D</t>
+          <t>Takayoshi_Kanō</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Takayoshi Kanō (加納 隆至, Kanō Takayoshi?) est un primatologue japonais. Il est connu pour ses travaux pionniers sur les bonobos (Pan paniscus). Étudiant de Junichiro Itani, il a été professeur à l’université des Ryūkyū et à l’Institut de recherche des primates de l’université de Kyoto. De 1965 à 1967, il assiste Jun'ichiro Itani en Tanzanie dans ses études sur le comportement des chimpanzés. En 1973, il établit le premier centre d’études des bonobos à Wamba, réserve scientifique de la Luo, actuelle province de la Tshuapa en République démocratique du Congo (1). Dès lors, il se rendra presque tous les ans au Congo, appelé Zaïre à l'époque, jusqu'à ce qu'il prenne sa retraite à la fin des années 1990. Il a consacré la plus grande partie de sa carrière à l'étude des bonobos.
 Son essai le plus connu, The Last Ape: Pygmy Chimpanzee Behavior and Ecology, a été traduit en anglais en 1992 (Stanford University Press).
